--- a/Data/BRUTOS-2025/07-2025/sh-nfs_final.xlsx
+++ b/Data/BRUTOS-2025/07-2025/sh-nfs_final.xlsx
@@ -1,20 +1,33 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4505"/>
-  <workbookPr defaultThemeVersion="124226"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:dbsheet="http://web.wps.cn/et/2021/dbsheet">
+  <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
+  <workbookPr/>
   <bookViews>
-    <workbookView xWindow="240" yWindow="15" windowWidth="16095" windowHeight="9660"/>
+    <workbookView windowWidth="19545" windowHeight="7620"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="124519" fullCalcOnLoad="1"/>
+  <calcPr calcId="191029"/>
+  <extLst>
+    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
+      <xcalcf:calcFeatures>
+        <xcalcf:feature name="microsoft.com:RD"/>
+        <xcalcf:feature name="microsoft.com:Single"/>
+        <xcalcf:feature name="microsoft.com:FV"/>
+        <xcalcf:feature name="microsoft.com:CNMTM"/>
+        <xcalcf:feature name="microsoft.com:LET_WF"/>
+        <xcalcf:feature name="microsoft.com:LAMBDA_WF"/>
+        <xcalcf:feature name="microsoft.com:ARRAYTEXT_WF"/>
+      </xcalcf:calcFeatures>
+    </ext>
+  </extLst>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="118" uniqueCount="100">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="116" uniqueCount="98">
   <si>
     <t>Dt. emissão</t>
   </si>
@@ -43,21 +56,39 @@
     <t>60.132.533/0001-59</t>
   </si>
   <si>
+    <t>T&amp;G LIVROS E BRINQUEDOS LTDA</t>
+  </si>
+  <si>
     <t>13.181.187/0001-19</t>
   </si>
   <si>
+    <t>LIG BRINK LIVROS E BRINQUEDOS LTDA</t>
+  </si>
+  <si>
     <t>13.437.498/0001-04</t>
   </si>
   <si>
+    <t>F R LUCENA COMERCIO VAREJISTA LTDA</t>
+  </si>
+  <si>
     <t>57.933.730/0001-62</t>
   </si>
   <si>
+    <t>MARA &amp; FLORA BRINQUEDOS EDUCATIVOS LTDA</t>
+  </si>
+  <si>
     <t>19.644.944/0010-10</t>
   </si>
   <si>
+    <t>COHAMA ARTIGOS PARA FESTAS LTDA</t>
+  </si>
+  <si>
     <t>19.644.944/0006-34</t>
   </si>
   <si>
+    <t>COHAMA ARTIGOS PARA FESTAS LTDA SAO CRISTOVAO</t>
+  </si>
+  <si>
     <t>19.644.944/0009-87</t>
   </si>
   <si>
@@ -79,9 +110,15 @@
     <t>19.644.944/0008-04</t>
   </si>
   <si>
+    <t>COHAMA ARTIGOS PARA FESTAS LTDA SANTA INES</t>
+  </si>
+  <si>
     <t>08.505.025/0001-59</t>
   </si>
   <si>
+    <t>CANTINHO DOCE ARTIGOS PARA FESTAS LTDA</t>
+  </si>
+  <si>
     <t>19.644.944/0001-20</t>
   </si>
   <si>
@@ -91,226 +128,196 @@
     <t>48.601.637/0001-60</t>
   </si>
   <si>
+    <t>COMERCIO DE ENFEITES PARA FESTAS CONDE LTDA</t>
+  </si>
+  <si>
     <t>30.048.918/0001-71</t>
   </si>
   <si>
+    <t>E . M . SOUSA EIRELI</t>
+  </si>
+  <si>
     <t>05.821.502/0001-05</t>
   </si>
   <si>
+    <t>COMERCIO DE ARTIGOS P/  ALIMENTOS MARLEI LTDA</t>
+  </si>
+  <si>
     <t>27.993.790/0001-00</t>
   </si>
   <si>
+    <t>MFC EMBALAGENS E FESTA LTDA</t>
+  </si>
+  <si>
     <t>11.152.556/0001-10</t>
   </si>
   <si>
+    <t>MIRA DOCES LTDA</t>
+  </si>
+  <si>
     <t>01.642.406/0001-30</t>
   </si>
   <si>
+    <t>PEDRO MENINO LEITE</t>
+  </si>
+  <si>
     <t>57.150.835/0001-45</t>
   </si>
   <si>
+    <t>JPLM COMERCIO DE DOCES E ARTIGOS PARA FESTAS LTDA</t>
+  </si>
+  <si>
     <t>50.281.752/0001-46</t>
   </si>
   <si>
+    <t>50.281.752 SAMUEL JARDEL DA SILVA</t>
+  </si>
+  <si>
     <t>14.268.955/0001-39</t>
   </si>
   <si>
-    <t>46.253.063/0001-50</t>
+    <t>COMFESTA COMERCIAL LTDA</t>
   </si>
   <si>
     <t>45.259.281/0001-30</t>
   </si>
   <si>
+    <t>SILVIA DAHIANA FRANCA ACOSTA</t>
+  </si>
+  <si>
     <t>52.194.559/0001-01</t>
   </si>
   <si>
+    <t>HEYOKAH COMERCIO LTDA</t>
+  </si>
+  <si>
     <t>13.962.679/0001-41</t>
   </si>
   <si>
+    <t>UNIVERSO DAS FESTAS LTDA</t>
+  </si>
+  <si>
     <t>10.595.509/0001-88</t>
   </si>
   <si>
+    <t>CELGUIA.COM LTDA</t>
+  </si>
+  <si>
     <t>45.881.417/0001-49</t>
   </si>
   <si>
+    <t>MAX25 COMERCIO E IMPORTACAO DE ARTIGOS EM GERAL LTDA</t>
+  </si>
+  <si>
     <t>08.260.040/0001-84</t>
   </si>
   <si>
+    <t>KUNGA DISTRIBUIDORA DE ALIMENTOS LTDA.</t>
+  </si>
+  <si>
     <t>44.192.682/0001-57</t>
   </si>
   <si>
+    <t>RSB FANTASIAS LTDA</t>
+  </si>
+  <si>
     <t>17.430.439/0001-57</t>
   </si>
   <si>
+    <t>CHOCO MANIA COMERCIO DE DOCES LTDA</t>
+  </si>
+  <si>
     <t>17.598.069/0001-61</t>
   </si>
   <si>
+    <t>AQUARELLA BAZAR LTDA</t>
+  </si>
+  <si>
     <t>06.080.194/0001-69</t>
   </si>
   <si>
+    <t>R.NONNENMACHER ARTIGOS DE FESTAS LTDA</t>
+  </si>
+  <si>
     <t>05.958.290/0001-02</t>
   </si>
   <si>
+    <t>KASA STILLO LTDA</t>
+  </si>
+  <si>
     <t>19.466.744/0001-24</t>
   </si>
   <si>
+    <t>SISSIBABY MODA INFANTIL LTDA</t>
+  </si>
+  <si>
     <t>44.371.063/0001-20</t>
   </si>
   <si>
+    <t>JUJU MAGAZINE FANTASIAS LTDA</t>
+  </si>
+  <si>
     <t>45.050.959/0001-70</t>
   </si>
   <si>
+    <t>TANINO UTILIDADES E PRESENTES LTDA</t>
+  </si>
+  <si>
     <t>02.449.975/0001-27</t>
   </si>
   <si>
+    <t>MARA NANCI FLORES SCHMITT</t>
+  </si>
+  <si>
     <t>15.443.606/0001-79</t>
   </si>
   <si>
+    <t>CHINI &amp; PIOVESAN LTDA</t>
+  </si>
+  <si>
     <t>52.007.407/0001-44</t>
   </si>
   <si>
+    <t>SILVANO ARTE MADEIRA E FESTAS LTDA</t>
+  </si>
+  <si>
     <t>13.886.525/0001-18</t>
   </si>
   <si>
+    <t>FANTASIAS E CIA COMERCIO DE MODA E BELEZA LTDA</t>
+  </si>
+  <si>
     <t>04.441.958/0001-79</t>
   </si>
   <si>
+    <t>M.A. COMERCIO DE BRINQUEDOS LTDA</t>
+  </si>
+  <si>
     <t>51.510.276/0001-50</t>
   </si>
   <si>
+    <t>SUPREME COMERCIO E DISTRIBUIDORA LTDA</t>
+  </si>
+  <si>
     <t>27.688.136/0001-92</t>
   </si>
   <si>
+    <t>TRICOLANDIA FESTAS EIRELI</t>
+  </si>
+  <si>
     <t>10.721.534/0001-60</t>
   </si>
   <si>
+    <t>PORTAL VARIEDADES LTDA</t>
+  </si>
+  <si>
     <t>92.641.075/0001-70</t>
   </si>
   <si>
+    <t>LUCIO FLAVIO BINATO &amp; CIA LTDA</t>
+  </si>
+  <si>
     <t>78.987.260/0001-90</t>
-  </si>
-  <si>
-    <t>T&amp;G LIVROS E BRINQUEDOS LTDA</t>
-  </si>
-  <si>
-    <t>LIG BRINK LIVROS E BRINQUEDOS LTDA</t>
-  </si>
-  <si>
-    <t>F R LUCENA COMERCIO VAREJISTA LTDA</t>
-  </si>
-  <si>
-    <t>MARA &amp; FLORA BRINQUEDOS EDUCATIVOS LTDA</t>
-  </si>
-  <si>
-    <t>COHAMA ARTIGOS PARA FESTAS LTDA</t>
-  </si>
-  <si>
-    <t>COHAMA ARTIGOS PARA FESTAS LTDA SAO CRISTOVAO</t>
-  </si>
-  <si>
-    <t>COHAMA ARTIGOS PARA FESTAS LTDA SANTA INES</t>
-  </si>
-  <si>
-    <t>CANTINHO DOCE ARTIGOS PARA FESTAS LTDA</t>
-  </si>
-  <si>
-    <t>COMERCIO DE ENFEITES PARA FESTAS CONDE LTDA</t>
-  </si>
-  <si>
-    <t>E . M . SOUSA EIRELI</t>
-  </si>
-  <si>
-    <t>COMERCIO DE ARTIGOS P/  ALIMENTOS MARLEI LTDA</t>
-  </si>
-  <si>
-    <t>MFC EMBALAGENS E FESTA LTDA</t>
-  </si>
-  <si>
-    <t>MIRA DOCES LTDA</t>
-  </si>
-  <si>
-    <t>PEDRO MENINO LEITE</t>
-  </si>
-  <si>
-    <t>JPLM COMERCIO DE DOCES E ARTIGOS PARA FESTAS LTDA</t>
-  </si>
-  <si>
-    <t>50.281.752 SAMUEL JARDEL DA SILVA</t>
-  </si>
-  <si>
-    <t>COMFESTA COMERCIAL LTDA</t>
-  </si>
-  <si>
-    <t>DIVANI KRETSCHMER LTDA</t>
-  </si>
-  <si>
-    <t>SILVIA DAHIANA FRANCA ACOSTA</t>
-  </si>
-  <si>
-    <t>HEYOKAH COMERCIO LTDA</t>
-  </si>
-  <si>
-    <t>UNIVERSO DAS FESTAS LTDA</t>
-  </si>
-  <si>
-    <t>CELGUIA.COM LTDA</t>
-  </si>
-  <si>
-    <t>MAX25 COMERCIO E IMPORTACAO DE ARTIGOS EM GERAL LTDA</t>
-  </si>
-  <si>
-    <t>KUNGA DISTRIBUIDORA DE ALIMENTOS LTDA.</t>
-  </si>
-  <si>
-    <t>RSB FANTASIAS LTDA</t>
-  </si>
-  <si>
-    <t>CHOCO MANIA COMERCIO DE DOCES LTDA</t>
-  </si>
-  <si>
-    <t>AQUARELLA BAZAR LTDA</t>
-  </si>
-  <si>
-    <t>R.NONNENMACHER ARTIGOS DE FESTAS LTDA</t>
-  </si>
-  <si>
-    <t>KASA STILLO LTDA</t>
-  </si>
-  <si>
-    <t>SISSIBABY MODA INFANTIL LTDA</t>
-  </si>
-  <si>
-    <t>JUJU MAGAZINE FANTASIAS LTDA</t>
-  </si>
-  <si>
-    <t>TANINO UTILIDADES E PRESENTES LTDA</t>
-  </si>
-  <si>
-    <t>MARA NANCI FLORES SCHMITT</t>
-  </si>
-  <si>
-    <t>CHINI &amp; PIOVESAN LTDA</t>
-  </si>
-  <si>
-    <t>SILVANO ARTE MADEIRA E FESTAS LTDA</t>
-  </si>
-  <si>
-    <t>FANTASIAS E CIA COMERCIO DE MODA E BELEZA LTDA</t>
-  </si>
-  <si>
-    <t>M.A. COMERCIO DE BRINQUEDOS LTDA</t>
-  </si>
-  <si>
-    <t>SUPREME COMERCIO E DISTRIBUIDORA LTDA</t>
-  </si>
-  <si>
-    <t>TRICOLANDIA FESTAS EIRELI</t>
-  </si>
-  <si>
-    <t>PORTAL VARIEDADES LTDA</t>
-  </si>
-  <si>
-    <t>LUCIO FLAVIO BINATO &amp; CIA LTDA</t>
   </si>
   <si>
     <t>CASA DAS FANTASIAS ARTIGOS PARA FESTAS LTDA</t>
@@ -319,16 +326,20 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <numFmts count="1">
-    <numFmt numFmtId="164" formatCode="YYYY-MM-DD HH:MM:SS"/>
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr9="http://schemas.microsoft.com/office/spreadsheetml/2016/revision9" mc:Ignorable="xr9">
+  <numFmts count="5">
+    <numFmt numFmtId="176" formatCode="_-* #,##0.00_-;\-* #,##0.00_-;_-* &quot;-&quot;??_-;_-@_-"/>
+    <numFmt numFmtId="177" formatCode="_-&quot;R$&quot;\ * #,##0.00_-;\-&quot;R$&quot;\ * #,##0.00_-;_-&quot;R$&quot;\ * &quot;-&quot;??_-;_-@_-"/>
+    <numFmt numFmtId="178" formatCode="_-* #,##0_-;\-* #,##0_-;_-* &quot;-&quot;_-;_-@_-"/>
+    <numFmt numFmtId="179" formatCode="_-&quot;R$&quot;\ * #,##0_-;\-&quot;R$&quot;\ * #,##0_-;_-&quot;R$&quot;\ * &quot;-&quot;_-;_-@_-"/>
+    <numFmt numFmtId="180" formatCode="yyyy\-mm\-dd\ hh:mm:ss"/>
   </numFmts>
-  <fonts count="2">
+  <fonts count="22">
     <font>
       <sz val="11"/>
       <color theme="1"/>
       <name val="Calibri"/>
-      <family val="2"/>
+      <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -336,19 +347,356 @@
       <sz val="11"/>
       <color theme="1"/>
       <name val="Calibri"/>
-      <family val="2"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="10"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF0000FF"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF800080"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="18"/>
+      <color theme="3"/>
+      <name val="Calibri"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <i/>
+      <sz val="11"/>
+      <color rgb="FF7F7F7F"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="15"/>
+      <color theme="3"/>
+      <name val="Calibri"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="13"/>
+      <color theme="3"/>
+      <name val="Calibri"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="3"/>
+      <name val="Calibri"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF3F3F76"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FF3F3F3F"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFFFFFF"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF006100"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C0006"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C6500"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="0"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="2">
+  <fills count="33">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="2">
+  <borders count="10">
     <border>
       <left/>
       <right/>
@@ -371,22 +719,316 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color rgb="FFB2B2B2"/>
+      </left>
+      <right style="thin">
+        <color rgb="FFB2B2B2"/>
+      </right>
+      <top style="thin">
+        <color rgb="FFB2B2B2"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FFB2B2B2"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4" tint="0.499984740745262"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF7F7F7F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF7F7F7F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF7F7F7F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF7F7F7F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="double">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="double">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="double">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="double">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="double">
+        <color rgb="FFFF8001"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color theme="4"/>
+      </top>
+      <bottom style="double">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
-  <cellStyleXfs count="1">
+  <cellStyleXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf numFmtId="176" fontId="2" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="177" fontId="2" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="2" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="178" fontId="2" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="179" fontId="2" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="2" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="3" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="4" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="4" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="5" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="9" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
   </cellStyleXfs>
   <cellXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
     </xf>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="180" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
   </cellXfs>
-  <cellStyles count="1">
+  <cellStyles count="49">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
+    <cellStyle name="Comma" xfId="1" builtinId="3"/>
+    <cellStyle name="Moeda" xfId="2" builtinId="4"/>
+    <cellStyle name="Porcentagem" xfId="3" builtinId="5"/>
+    <cellStyle name="Comma [0]" xfId="4" builtinId="6"/>
+    <cellStyle name="Moeda [0]" xfId="5" builtinId="7"/>
+    <cellStyle name="Hyperlink" xfId="6" builtinId="8"/>
+    <cellStyle name="Hyperlink seguido" xfId="7" builtinId="9"/>
+    <cellStyle name="Observação" xfId="8" builtinId="10"/>
+    <cellStyle name="Texto de Aviso" xfId="9" builtinId="11"/>
+    <cellStyle name="Título" xfId="10" builtinId="15"/>
+    <cellStyle name="Texto Explicativo" xfId="11" builtinId="53"/>
+    <cellStyle name="Título 1" xfId="12" builtinId="16"/>
+    <cellStyle name="Título 2" xfId="13" builtinId="17"/>
+    <cellStyle name="Título 3" xfId="14" builtinId="18"/>
+    <cellStyle name="Título 4" xfId="15" builtinId="19"/>
+    <cellStyle name="Entrada" xfId="16" builtinId="20"/>
+    <cellStyle name="Saída" xfId="17" builtinId="21"/>
+    <cellStyle name="Cálculo" xfId="18" builtinId="22"/>
+    <cellStyle name="Célula de Verificação" xfId="19" builtinId="23"/>
+    <cellStyle name="Célula Vinculada" xfId="20" builtinId="24"/>
+    <cellStyle name="Total" xfId="21" builtinId="25"/>
+    <cellStyle name="Bom" xfId="22" builtinId="26"/>
+    <cellStyle name="Ruim" xfId="23" builtinId="27"/>
+    <cellStyle name="Neutro" xfId="24" builtinId="28"/>
+    <cellStyle name="Ênfase 1" xfId="25" builtinId="29"/>
+    <cellStyle name="20% - Ênfase 1" xfId="26" builtinId="30"/>
+    <cellStyle name="40% - Ênfase 1" xfId="27" builtinId="31"/>
+    <cellStyle name="60% - Ênfase 1" xfId="28" builtinId="32"/>
+    <cellStyle name="Ênfase 2" xfId="29" builtinId="33"/>
+    <cellStyle name="20% - Ênfase 2" xfId="30" builtinId="34"/>
+    <cellStyle name="40% - Ênfase 2" xfId="31" builtinId="35"/>
+    <cellStyle name="60% - Ênfase 2" xfId="32" builtinId="36"/>
+    <cellStyle name="Ênfase 3" xfId="33" builtinId="37"/>
+    <cellStyle name="20% - Ênfase 3" xfId="34" builtinId="38"/>
+    <cellStyle name="40% - Ênfase 3" xfId="35" builtinId="39"/>
+    <cellStyle name="60% - Ênfase 3" xfId="36" builtinId="40"/>
+    <cellStyle name="Ênfase 4" xfId="37" builtinId="41"/>
+    <cellStyle name="20% - Ênfase 4" xfId="38" builtinId="42"/>
+    <cellStyle name="40% - Ênfase 4" xfId="39" builtinId="43"/>
+    <cellStyle name="60% - Ênfase 4" xfId="40" builtinId="44"/>
+    <cellStyle name="Ênfase 5" xfId="41" builtinId="45"/>
+    <cellStyle name="20% - Ênfase 5" xfId="42" builtinId="46"/>
+    <cellStyle name="40% - Ênfase 5" xfId="43" builtinId="47"/>
+    <cellStyle name="60% - Ênfase 5" xfId="44" builtinId="48"/>
+    <cellStyle name="Ênfase 6" xfId="45" builtinId="49"/>
+    <cellStyle name="20% - Ênfase 6" xfId="46" builtinId="50"/>
+    <cellStyle name="40% - Ênfase 6" xfId="47" builtinId="51"/>
+    <cellStyle name="60% - Ênfase 6" xfId="48" builtinId="52"/>
   </cellStyles>
-  <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
+  <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
+      <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
+    </ext>
+  </extLst>
 </styleSheet>
 </file>
 
@@ -669,17 +1311,28 @@
     </a:fmtScheme>
   </a:themeElements>
   <a:objectDefaults/>
-  <a:extraClrSchemeLst/>
 </a:theme>
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:H56"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
+  <sheetPr/>
+  <dimension ref="A1:H55"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0"/>
+    <sheetView tabSelected="1" topLeftCell="A4" workbookViewId="0">
+      <selection activeCell="F16" sqref="F16"/>
+    </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="15" outlineLevelCol="7"/>
+  <cols>
+    <col min="1" max="2" width="19.5714285714286" customWidth="1"/>
+    <col min="3" max="3" width="8.71428571428571" customWidth="1"/>
+    <col min="4" max="4" width="10.4285714285714" customWidth="1"/>
+    <col min="5" max="5" width="19.2857142857143" customWidth="1"/>
+    <col min="6" max="6" width="62.4285714285714" customWidth="1"/>
+    <col min="7" max="7" width="13.5714285714286" customWidth="1"/>
+    <col min="8" max="8" width="13.4285714285714" customWidth="1"/>
+  </cols>
   <sheetData>
     <row r="1" spans="1:8">
       <c r="A1" s="1" t="s">
@@ -724,7 +1377,7 @@
         <v>8</v>
       </c>
       <c r="F2" t="s">
-        <v>58</v>
+        <v>9</v>
       </c>
       <c r="G2">
         <v>23</v>
@@ -747,10 +1400,10 @@
         <v>5617</v>
       </c>
       <c r="E3" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="F3" t="s">
-        <v>59</v>
+        <v>11</v>
       </c>
       <c r="G3">
         <v>68</v>
@@ -773,10 +1426,10 @@
         <v>5620</v>
       </c>
       <c r="E4" t="s">
-        <v>10</v>
+        <v>12</v>
       </c>
       <c r="F4" t="s">
-        <v>60</v>
+        <v>13</v>
       </c>
       <c r="G4">
         <v>26</v>
@@ -799,10 +1452,10 @@
         <v>5623</v>
       </c>
       <c r="E5" t="s">
-        <v>11</v>
+        <v>14</v>
       </c>
       <c r="F5" t="s">
-        <v>61</v>
+        <v>15</v>
       </c>
       <c r="G5">
         <v>23</v>
@@ -825,10 +1478,10 @@
         <v>5625</v>
       </c>
       <c r="E6" t="s">
-        <v>12</v>
+        <v>16</v>
       </c>
       <c r="F6" t="s">
-        <v>62</v>
+        <v>17</v>
       </c>
       <c r="G6">
         <v>23</v>
@@ -851,13 +1504,13 @@
         <v>5630</v>
       </c>
       <c r="E7" t="s">
-        <v>13</v>
+        <v>18</v>
       </c>
       <c r="F7" t="s">
-        <v>63</v>
+        <v>19</v>
       </c>
       <c r="G7">
-        <v>109</v>
+        <v>23</v>
       </c>
       <c r="H7">
         <v>1635.8</v>
@@ -877,10 +1530,10 @@
         <v>5626</v>
       </c>
       <c r="E8" t="s">
-        <v>14</v>
+        <v>20</v>
       </c>
       <c r="F8" t="s">
-        <v>62</v>
+        <v>17</v>
       </c>
       <c r="G8">
         <v>23</v>
@@ -903,10 +1556,10 @@
         <v>5629</v>
       </c>
       <c r="E9" t="s">
-        <v>15</v>
+        <v>21</v>
       </c>
       <c r="F9" t="s">
-        <v>62</v>
+        <v>17</v>
       </c>
       <c r="G9">
         <v>23</v>
@@ -929,10 +1582,10 @@
         <v>5628</v>
       </c>
       <c r="E10" t="s">
-        <v>16</v>
+        <v>22</v>
       </c>
       <c r="F10" t="s">
-        <v>62</v>
+        <v>17</v>
       </c>
       <c r="G10">
         <v>23</v>
@@ -955,10 +1608,10 @@
         <v>5627</v>
       </c>
       <c r="E11" t="s">
+        <v>23</v>
+      </c>
+      <c r="F11" t="s">
         <v>17</v>
-      </c>
-      <c r="F11" t="s">
-        <v>62</v>
       </c>
       <c r="G11">
         <v>23</v>
@@ -981,10 +1634,10 @@
         <v>5631</v>
       </c>
       <c r="E12" t="s">
-        <v>18</v>
+        <v>24</v>
       </c>
       <c r="F12" t="s">
-        <v>62</v>
+        <v>17</v>
       </c>
       <c r="G12">
         <v>23</v>
@@ -1007,10 +1660,10 @@
         <v>5632</v>
       </c>
       <c r="E13" t="s">
-        <v>19</v>
+        <v>25</v>
       </c>
       <c r="F13" t="s">
-        <v>62</v>
+        <v>17</v>
       </c>
       <c r="G13">
         <v>23</v>
@@ -1033,10 +1686,10 @@
         <v>5633</v>
       </c>
       <c r="E14" t="s">
-        <v>20</v>
+        <v>26</v>
       </c>
       <c r="F14" t="s">
-        <v>64</v>
+        <v>27</v>
       </c>
       <c r="G14">
         <v>23</v>
@@ -1059,10 +1712,10 @@
         <v>5634</v>
       </c>
       <c r="E15" t="s">
-        <v>21</v>
+        <v>28</v>
       </c>
       <c r="F15" t="s">
-        <v>65</v>
+        <v>29</v>
       </c>
       <c r="G15">
         <v>23</v>
@@ -1085,10 +1738,10 @@
         <v>5635</v>
       </c>
       <c r="E16" t="s">
-        <v>22</v>
+        <v>30</v>
       </c>
       <c r="F16" t="s">
-        <v>62</v>
+        <v>17</v>
       </c>
       <c r="G16">
         <v>23</v>
@@ -1111,10 +1764,10 @@
         <v>5636</v>
       </c>
       <c r="E17" t="s">
-        <v>23</v>
+        <v>31</v>
       </c>
       <c r="F17" t="s">
-        <v>62</v>
+        <v>17</v>
       </c>
       <c r="G17">
         <v>23</v>
@@ -1137,10 +1790,10 @@
         <v>5642</v>
       </c>
       <c r="E18" t="s">
-        <v>24</v>
+        <v>32</v>
       </c>
       <c r="F18" t="s">
-        <v>66</v>
+        <v>33</v>
       </c>
       <c r="G18">
         <v>26</v>
@@ -1163,10 +1816,10 @@
         <v>5621</v>
       </c>
       <c r="E19" t="s">
-        <v>25</v>
+        <v>34</v>
       </c>
       <c r="F19" t="s">
-        <v>67</v>
+        <v>35</v>
       </c>
       <c r="G19">
         <v>79</v>
@@ -1189,13 +1842,13 @@
         <v>5643</v>
       </c>
       <c r="E20" t="s">
-        <v>26</v>
+        <v>36</v>
       </c>
       <c r="F20" t="s">
-        <v>68</v>
+        <v>37</v>
       </c>
       <c r="G20">
-        <v>62</v>
+        <v>109</v>
       </c>
       <c r="H20">
         <v>3062.7</v>
@@ -1215,13 +1868,13 @@
         <v>5645</v>
       </c>
       <c r="E21" t="s">
-        <v>26</v>
+        <v>36</v>
       </c>
       <c r="F21" t="s">
-        <v>68</v>
+        <v>37</v>
       </c>
       <c r="G21">
-        <v>62</v>
+        <v>109</v>
       </c>
       <c r="H21">
         <v>4189.9</v>
@@ -1241,10 +1894,10 @@
         <v>5639</v>
       </c>
       <c r="E22" t="s">
-        <v>27</v>
+        <v>38</v>
       </c>
       <c r="F22" t="s">
-        <v>69</v>
+        <v>39</v>
       </c>
       <c r="G22">
         <v>2</v>
@@ -1267,10 +1920,10 @@
         <v>5646</v>
       </c>
       <c r="E23" t="s">
-        <v>28</v>
+        <v>40</v>
       </c>
       <c r="F23" t="s">
-        <v>70</v>
+        <v>41</v>
       </c>
       <c r="G23">
         <v>26</v>
@@ -1293,10 +1946,10 @@
         <v>5644</v>
       </c>
       <c r="E24" t="s">
-        <v>26</v>
+        <v>36</v>
       </c>
       <c r="F24" t="s">
-        <v>68</v>
+        <v>37</v>
       </c>
       <c r="G24">
         <v>109</v>
@@ -1319,10 +1972,10 @@
         <v>5641</v>
       </c>
       <c r="E25" t="s">
-        <v>29</v>
+        <v>42</v>
       </c>
       <c r="F25" t="s">
-        <v>71</v>
+        <v>43</v>
       </c>
       <c r="G25">
         <v>64</v>
@@ -1345,10 +1998,10 @@
         <v>5640</v>
       </c>
       <c r="E26" t="s">
-        <v>30</v>
+        <v>44</v>
       </c>
       <c r="F26" t="s">
-        <v>72</v>
+        <v>45</v>
       </c>
       <c r="G26">
         <v>64</v>
@@ -1371,10 +2024,10 @@
         <v>5651</v>
       </c>
       <c r="E27" t="s">
-        <v>31</v>
+        <v>46</v>
       </c>
       <c r="F27" t="s">
-        <v>73</v>
+        <v>47</v>
       </c>
       <c r="G27">
         <v>50</v>
@@ -1397,10 +2050,10 @@
         <v>5654</v>
       </c>
       <c r="E28" t="s">
-        <v>32</v>
+        <v>48</v>
       </c>
       <c r="F28" t="s">
-        <v>74</v>
+        <v>49</v>
       </c>
       <c r="G28">
         <v>98</v>
@@ -1414,77 +2067,77 @@
         <v>45849</v>
       </c>
       <c r="B29" s="2">
-        <v>45868</v>
+        <v>45863</v>
       </c>
       <c r="C29">
-        <v>7376</v>
+        <v>7377</v>
       </c>
       <c r="D29">
-        <v>5608</v>
+        <v>5649</v>
       </c>
       <c r="E29" t="s">
-        <v>33</v>
+        <v>50</v>
       </c>
       <c r="F29" t="s">
-        <v>75</v>
+        <v>51</v>
       </c>
       <c r="G29">
         <v>109</v>
       </c>
       <c r="H29">
-        <v>11274.06</v>
+        <v>19013.54</v>
       </c>
     </row>
     <row r="30" spans="1:8">
       <c r="A30" s="2">
-        <v>45849</v>
+        <v>45852</v>
       </c>
       <c r="B30" s="2">
-        <v>45863</v>
+        <v>45852</v>
       </c>
       <c r="C30">
-        <v>7377</v>
+        <v>7379</v>
       </c>
       <c r="D30">
-        <v>5649</v>
+        <v>5661</v>
       </c>
       <c r="E30" t="s">
-        <v>34</v>
+        <v>52</v>
       </c>
       <c r="F30" t="s">
-        <v>76</v>
+        <v>53</v>
       </c>
       <c r="G30">
-        <v>109</v>
+        <v>23</v>
       </c>
       <c r="H30">
-        <v>19013.54</v>
+        <v>824.45</v>
       </c>
     </row>
     <row r="31" spans="1:8">
       <c r="A31" s="2">
-        <v>45852</v>
+        <v>45853</v>
       </c>
       <c r="B31" s="2">
-        <v>45852</v>
+        <v>45867</v>
       </c>
       <c r="C31">
-        <v>7379</v>
+        <v>7380</v>
       </c>
       <c r="D31">
-        <v>5661</v>
+        <v>5659</v>
       </c>
       <c r="E31" t="s">
-        <v>35</v>
+        <v>54</v>
       </c>
       <c r="F31" t="s">
-        <v>77</v>
+        <v>55</v>
       </c>
       <c r="G31">
-        <v>23</v>
+        <v>82</v>
       </c>
       <c r="H31">
-        <v>824.45</v>
+        <v>1672.55</v>
       </c>
     </row>
     <row r="32" spans="1:8">
@@ -1495,22 +2148,22 @@
         <v>45867</v>
       </c>
       <c r="C32">
-        <v>7380</v>
+        <v>7381</v>
       </c>
       <c r="D32">
-        <v>5659</v>
+        <v>5662</v>
       </c>
       <c r="E32" t="s">
-        <v>36</v>
+        <v>56</v>
       </c>
       <c r="F32" t="s">
-        <v>78</v>
+        <v>57</v>
       </c>
       <c r="G32">
-        <v>82</v>
+        <v>2</v>
       </c>
       <c r="H32">
-        <v>1672.55</v>
+        <v>3876.25</v>
       </c>
     </row>
     <row r="33" spans="1:8">
@@ -1518,25 +2171,25 @@
         <v>45853</v>
       </c>
       <c r="B33" s="2">
-        <v>45867</v>
+        <v>45868</v>
       </c>
       <c r="C33">
-        <v>7381</v>
+        <v>7382</v>
       </c>
       <c r="D33">
-        <v>5662</v>
+        <v>5660</v>
       </c>
       <c r="E33" t="s">
-        <v>37</v>
+        <v>58</v>
       </c>
       <c r="F33" t="s">
-        <v>79</v>
+        <v>59</v>
       </c>
       <c r="G33">
-        <v>2</v>
+        <v>26</v>
       </c>
       <c r="H33">
-        <v>3876.25</v>
+        <v>10224.5</v>
       </c>
     </row>
     <row r="34" spans="1:8">
@@ -1544,25 +2197,25 @@
         <v>45853</v>
       </c>
       <c r="B34" s="2">
-        <v>45868</v>
+        <v>45867</v>
       </c>
       <c r="C34">
-        <v>7382</v>
+        <v>7383</v>
       </c>
       <c r="D34">
-        <v>5660</v>
+        <v>5664</v>
       </c>
       <c r="E34" t="s">
-        <v>38</v>
+        <v>60</v>
       </c>
       <c r="F34" t="s">
-        <v>80</v>
+        <v>61</v>
       </c>
       <c r="G34">
-        <v>26</v>
+        <v>82</v>
       </c>
       <c r="H34">
-        <v>10224.5</v>
+        <v>2229.4</v>
       </c>
     </row>
     <row r="35" spans="1:8">
@@ -1573,48 +2226,48 @@
         <v>45867</v>
       </c>
       <c r="C35">
-        <v>7383</v>
+        <v>7384</v>
       </c>
       <c r="D35">
-        <v>5664</v>
+        <v>5665</v>
       </c>
       <c r="E35" t="s">
-        <v>39</v>
+        <v>62</v>
       </c>
       <c r="F35" t="s">
-        <v>81</v>
+        <v>63</v>
       </c>
       <c r="G35">
-        <v>82</v>
+        <v>64</v>
       </c>
       <c r="H35">
-        <v>2229.4</v>
+        <v>2936.5</v>
       </c>
     </row>
     <row r="36" spans="1:8">
       <c r="A36" s="2">
-        <v>45853</v>
+        <v>45856</v>
       </c>
       <c r="B36" s="2">
         <v>45867</v>
       </c>
       <c r="C36">
-        <v>7384</v>
+        <v>7385</v>
       </c>
       <c r="D36">
-        <v>5665</v>
+        <v>5655</v>
       </c>
       <c r="E36" t="s">
-        <v>40</v>
+        <v>64</v>
       </c>
       <c r="F36" t="s">
-        <v>82</v>
+        <v>65</v>
       </c>
       <c r="G36">
-        <v>64</v>
+        <v>50</v>
       </c>
       <c r="H36">
-        <v>2936.5</v>
+        <v>1506.6</v>
       </c>
     </row>
     <row r="37" spans="1:8">
@@ -1625,22 +2278,22 @@
         <v>45867</v>
       </c>
       <c r="C37">
-        <v>7385</v>
+        <v>7386</v>
       </c>
       <c r="D37">
-        <v>5655</v>
+        <v>5648</v>
       </c>
       <c r="E37" t="s">
-        <v>41</v>
+        <v>66</v>
       </c>
       <c r="F37" t="s">
-        <v>83</v>
+        <v>67</v>
       </c>
       <c r="G37">
-        <v>50</v>
+        <v>82</v>
       </c>
       <c r="H37">
-        <v>1506.6</v>
+        <v>2281.7</v>
       </c>
     </row>
     <row r="38" spans="1:8">
@@ -1651,22 +2304,22 @@
         <v>45867</v>
       </c>
       <c r="C38">
-        <v>7386</v>
+        <v>7387</v>
       </c>
       <c r="D38">
-        <v>5648</v>
+        <v>5669</v>
       </c>
       <c r="E38" t="s">
-        <v>42</v>
+        <v>68</v>
       </c>
       <c r="F38" t="s">
-        <v>84</v>
+        <v>69</v>
       </c>
       <c r="G38">
-        <v>82</v>
+        <v>83</v>
       </c>
       <c r="H38">
-        <v>2281.7</v>
+        <v>1575.8</v>
       </c>
     </row>
     <row r="39" spans="1:8">
@@ -1677,22 +2330,22 @@
         <v>45867</v>
       </c>
       <c r="C39">
-        <v>7387</v>
+        <v>7388</v>
       </c>
       <c r="D39">
-        <v>5669</v>
+        <v>5650</v>
       </c>
       <c r="E39" t="s">
-        <v>43</v>
+        <v>70</v>
       </c>
       <c r="F39" t="s">
-        <v>85</v>
+        <v>71</v>
       </c>
       <c r="G39">
-        <v>83</v>
+        <v>109</v>
       </c>
       <c r="H39">
-        <v>1575.8</v>
+        <v>2295.36</v>
       </c>
     </row>
     <row r="40" spans="1:8">
@@ -1703,22 +2356,22 @@
         <v>45867</v>
       </c>
       <c r="C40">
-        <v>7388</v>
+        <v>7389</v>
       </c>
       <c r="D40">
-        <v>5650</v>
+        <v>5666</v>
       </c>
       <c r="E40" t="s">
-        <v>44</v>
+        <v>72</v>
       </c>
       <c r="F40" t="s">
-        <v>86</v>
+        <v>73</v>
       </c>
       <c r="G40">
-        <v>109</v>
+        <v>2</v>
       </c>
       <c r="H40">
-        <v>2295.36</v>
+        <v>27344.5</v>
       </c>
     </row>
     <row r="41" spans="1:8">
@@ -1729,48 +2382,48 @@
         <v>45867</v>
       </c>
       <c r="C41">
-        <v>7389</v>
+        <v>7390</v>
       </c>
       <c r="D41">
-        <v>5666</v>
+        <v>5670</v>
       </c>
       <c r="E41" t="s">
-        <v>45</v>
+        <v>60</v>
       </c>
       <c r="F41" t="s">
-        <v>87</v>
+        <v>61</v>
       </c>
       <c r="G41">
-        <v>2</v>
+        <v>82</v>
       </c>
       <c r="H41">
-        <v>27344.5</v>
+        <v>5251.56</v>
       </c>
     </row>
     <row r="42" spans="1:8">
       <c r="A42" s="2">
-        <v>45856</v>
+        <v>45863</v>
       </c>
       <c r="B42" s="2">
-        <v>45867</v>
+        <v>45877</v>
       </c>
       <c r="C42">
-        <v>7390</v>
+        <v>7391</v>
       </c>
       <c r="D42">
-        <v>5670</v>
+        <v>5667</v>
       </c>
       <c r="E42" t="s">
-        <v>39</v>
+        <v>74</v>
       </c>
       <c r="F42" t="s">
-        <v>81</v>
+        <v>75</v>
       </c>
       <c r="G42">
-        <v>82</v>
+        <v>50</v>
       </c>
       <c r="H42">
-        <v>5251.56</v>
+        <v>1934.25</v>
       </c>
     </row>
     <row r="43" spans="1:8">
@@ -1781,22 +2434,22 @@
         <v>45877</v>
       </c>
       <c r="C43">
-        <v>7391</v>
+        <v>7392</v>
       </c>
       <c r="D43">
-        <v>5667</v>
+        <v>5676</v>
       </c>
       <c r="E43" t="s">
-        <v>46</v>
+        <v>76</v>
       </c>
       <c r="F43" t="s">
-        <v>88</v>
+        <v>77</v>
       </c>
       <c r="G43">
         <v>50</v>
       </c>
       <c r="H43">
-        <v>1934.25</v>
+        <v>1819.8</v>
       </c>
     </row>
     <row r="44" spans="1:8">
@@ -1807,22 +2460,22 @@
         <v>45877</v>
       </c>
       <c r="C44">
-        <v>7392</v>
+        <v>7394</v>
       </c>
       <c r="D44">
-        <v>5676</v>
+        <v>5675</v>
       </c>
       <c r="E44" t="s">
-        <v>47</v>
+        <v>78</v>
       </c>
       <c r="F44" t="s">
-        <v>89</v>
+        <v>79</v>
       </c>
       <c r="G44">
-        <v>50</v>
+        <v>62</v>
       </c>
       <c r="H44">
-        <v>1819.8</v>
+        <v>7638.21</v>
       </c>
     </row>
     <row r="45" spans="1:8">
@@ -1833,22 +2486,22 @@
         <v>45877</v>
       </c>
       <c r="C45">
-        <v>7394</v>
+        <v>7395</v>
       </c>
       <c r="D45">
-        <v>5675</v>
+        <v>5678</v>
       </c>
       <c r="E45" t="s">
-        <v>48</v>
+        <v>78</v>
       </c>
       <c r="F45" t="s">
-        <v>90</v>
+        <v>79</v>
       </c>
       <c r="G45">
         <v>62</v>
       </c>
       <c r="H45">
-        <v>7638.21</v>
+        <v>7265.79</v>
       </c>
     </row>
     <row r="46" spans="1:8">
@@ -1856,51 +2509,51 @@
         <v>45863</v>
       </c>
       <c r="B46" s="2">
-        <v>45877</v>
+        <v>45879</v>
       </c>
       <c r="C46">
-        <v>7395</v>
+        <v>7396</v>
       </c>
       <c r="D46">
-        <v>5678</v>
+        <v>5683</v>
       </c>
       <c r="E46" t="s">
-        <v>48</v>
+        <v>80</v>
       </c>
       <c r="F46" t="s">
-        <v>90</v>
+        <v>81</v>
       </c>
       <c r="G46">
-        <v>62</v>
+        <v>50</v>
       </c>
       <c r="H46">
-        <v>7265.79</v>
+        <v>11179.65</v>
       </c>
     </row>
     <row r="47" spans="1:8">
       <c r="A47" s="2">
-        <v>45863</v>
+        <v>45868</v>
       </c>
       <c r="B47" s="2">
-        <v>45879</v>
+        <v>45868</v>
       </c>
       <c r="C47">
-        <v>7396</v>
+        <v>7397</v>
       </c>
       <c r="D47">
-        <v>5683</v>
+        <v>5656</v>
       </c>
       <c r="E47" t="s">
-        <v>49</v>
+        <v>82</v>
       </c>
       <c r="F47" t="s">
-        <v>91</v>
+        <v>83</v>
       </c>
       <c r="G47">
-        <v>50</v>
+        <v>64</v>
       </c>
       <c r="H47">
-        <v>11179.65</v>
+        <v>30014.31</v>
       </c>
     </row>
     <row r="48" spans="1:8">
@@ -1908,25 +2561,25 @@
         <v>45868</v>
       </c>
       <c r="B48" s="2">
-        <v>45868</v>
+        <v>45884</v>
       </c>
       <c r="C48">
-        <v>7397</v>
+        <v>7398</v>
       </c>
       <c r="D48">
-        <v>5656</v>
+        <v>5657</v>
       </c>
       <c r="E48" t="s">
-        <v>50</v>
+        <v>82</v>
       </c>
       <c r="F48" t="s">
-        <v>92</v>
+        <v>83</v>
       </c>
       <c r="G48">
         <v>64</v>
       </c>
       <c r="H48">
-        <v>30014.31</v>
+        <v>2239.2</v>
       </c>
     </row>
     <row r="49" spans="1:8">
@@ -1937,22 +2590,22 @@
         <v>45884</v>
       </c>
       <c r="C49">
-        <v>7398</v>
+        <v>7399</v>
       </c>
       <c r="D49">
-        <v>5657</v>
+        <v>5673</v>
       </c>
       <c r="E49" t="s">
-        <v>50</v>
+        <v>84</v>
       </c>
       <c r="F49" t="s">
-        <v>92</v>
+        <v>85</v>
       </c>
       <c r="G49">
-        <v>64</v>
+        <v>26</v>
       </c>
       <c r="H49">
-        <v>2239.2</v>
+        <v>9122.2</v>
       </c>
     </row>
     <row r="50" spans="1:8">
@@ -1963,22 +2616,22 @@
         <v>45884</v>
       </c>
       <c r="C50">
-        <v>7399</v>
+        <v>7400</v>
       </c>
       <c r="D50">
-        <v>5673</v>
+        <v>5684</v>
       </c>
       <c r="E50" t="s">
-        <v>51</v>
+        <v>86</v>
       </c>
       <c r="F50" t="s">
-        <v>93</v>
+        <v>87</v>
       </c>
       <c r="G50">
-        <v>26</v>
+        <v>2</v>
       </c>
       <c r="H50">
-        <v>9122.200000000001</v>
+        <v>4665.3</v>
       </c>
     </row>
     <row r="51" spans="1:8">
@@ -1989,22 +2642,22 @@
         <v>45884</v>
       </c>
       <c r="C51">
-        <v>7400</v>
+        <v>7401</v>
       </c>
       <c r="D51">
-        <v>5684</v>
+        <v>5668</v>
       </c>
       <c r="E51" t="s">
-        <v>52</v>
+        <v>88</v>
       </c>
       <c r="F51" t="s">
-        <v>94</v>
+        <v>89</v>
       </c>
       <c r="G51">
-        <v>2</v>
+        <v>64</v>
       </c>
       <c r="H51">
-        <v>4665.3</v>
+        <v>1743.4</v>
       </c>
     </row>
     <row r="52" spans="1:8">
@@ -2015,22 +2668,22 @@
         <v>45884</v>
       </c>
       <c r="C52">
-        <v>7401</v>
+        <v>7402</v>
       </c>
       <c r="D52">
-        <v>5668</v>
+        <v>5694</v>
       </c>
       <c r="E52" t="s">
-        <v>53</v>
+        <v>90</v>
       </c>
       <c r="F52" t="s">
-        <v>95</v>
+        <v>91</v>
       </c>
       <c r="G52">
-        <v>64</v>
+        <v>26</v>
       </c>
       <c r="H52">
-        <v>1743.4</v>
+        <v>11880.06</v>
       </c>
     </row>
     <row r="53" spans="1:8">
@@ -2041,22 +2694,22 @@
         <v>45884</v>
       </c>
       <c r="C53">
-        <v>7402</v>
+        <v>7403</v>
       </c>
       <c r="D53">
-        <v>5694</v>
+        <v>5695</v>
       </c>
       <c r="E53" t="s">
-        <v>54</v>
+        <v>92</v>
       </c>
       <c r="F53" t="s">
-        <v>96</v>
+        <v>93</v>
       </c>
       <c r="G53">
-        <v>26</v>
+        <v>62</v>
       </c>
       <c r="H53">
-        <v>11880.06</v>
+        <v>5062.6</v>
       </c>
     </row>
     <row r="54" spans="1:8">
@@ -2067,22 +2720,22 @@
         <v>45884</v>
       </c>
       <c r="C54">
-        <v>7403</v>
+        <v>7404</v>
       </c>
       <c r="D54">
-        <v>5695</v>
+        <v>5681</v>
       </c>
       <c r="E54" t="s">
-        <v>55</v>
+        <v>94</v>
       </c>
       <c r="F54" t="s">
-        <v>97</v>
+        <v>95</v>
       </c>
       <c r="G54">
-        <v>62</v>
+        <v>109</v>
       </c>
       <c r="H54">
-        <v>5062.6</v>
+        <v>6929.8</v>
       </c>
     </row>
     <row r="55" spans="1:8">
@@ -2093,51 +2746,26 @@
         <v>45884</v>
       </c>
       <c r="C55">
-        <v>7404</v>
+        <v>7405</v>
       </c>
       <c r="D55">
-        <v>5681</v>
+        <v>5686</v>
       </c>
       <c r="E55" t="s">
-        <v>56</v>
+        <v>96</v>
       </c>
       <c r="F55" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="G55">
-        <v>109</v>
+        <v>50</v>
       </c>
       <c r="H55">
-        <v>6929.8</v>
-      </c>
-    </row>
-    <row r="56" spans="1:8">
-      <c r="A56" s="2">
-        <v>45868</v>
-      </c>
-      <c r="B56" s="2">
-        <v>45884</v>
-      </c>
-      <c r="C56">
-        <v>7405</v>
-      </c>
-      <c r="D56">
-        <v>5686</v>
-      </c>
-      <c r="E56" t="s">
-        <v>57</v>
-      </c>
-      <c r="F56" t="s">
-        <v>99</v>
-      </c>
-      <c r="G56">
-        <v>50</v>
-      </c>
-      <c r="H56">
         <v>5044.2</v>
       </c>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <headerFooter/>
 </worksheet>
 </file>